--- a/DataDriven/Data2.xlsx
+++ b/DataDriven/Data2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Selenium-Projects\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A935CB2F-7BAF-4DEB-A039-5B2733E9E55F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1CDBF5C1-E2D1-4515-A791-C2C9FFE81E79}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12696" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Demo Users</t>
+  </si>
+  <si>
+    <t>Harsha</t>
+  </si>
+  <si>
+    <t>HarshaJaiVardhan</t>
+  </si>
+  <si>
+    <t>zoho090794</t>
+  </si>
+  <si>
+    <t>harsha@gmail.com</t>
   </si>
   <si>
     <t>Success</t>
@@ -174,12 +186,15 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -465,15 +480,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" customWidth="true" width="17.77734375" collapsed="false"/>
+    <col min="1" max="10" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="17.77734375" collapsed="true"/>
+    <col min="12" max="15" customWidth="true" width="17.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -507,7 +524,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -567,13 +584,62 @@
         <v>24</v>
       </c>
       <c r="O2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9092246701</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L2" xr:uid="{2E0BA596-2E21-4E7E-BF20-4B3FE1835C26}"/>
     <hyperlink r:id="rId2" ref="M2" xr:uid="{D7E00B9B-8CF7-4F7F-9798-C87CBFBE5233}"/>
+    <hyperlink r:id="rId3" ref="L3" xr:uid="{7C5246B5-03C3-470C-ABE1-A1580907447A}"/>
+    <hyperlink r:id="rId4" ref="M3" xr:uid="{7A67BD31-2E0E-4769-A005-7B23CA67A04D}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataDriven/Data2.xlsx
+++ b/DataDriven/Data2.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Selenium-Projects\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1CDBF5C1-E2D1-4515-A791-C2C9FFE81E79}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6AE70-F468-4B18-9B11-1326C6C7C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="12696" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Container</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>Dhananjayan</t>
   </si>
   <si>
@@ -93,35 +90,19 @@
     <t>ABR</t>
   </si>
   <si>
-    <t>dhananjayansb@gmail.com</t>
-  </si>
-  <si>
     <t>www.zoho.com</t>
   </si>
   <si>
     <t>Demo Users</t>
   </si>
   <si>
-    <t>Harsha</t>
-  </si>
-  <si>
-    <t>HarshaJaiVardhan</t>
-  </si>
-  <si>
-    <t>zoho090794</t>
-  </si>
-  <si>
-    <t>harsha@gmail.com</t>
-  </si>
-  <si>
-    <t>Success</t>
+    <t>dhananjayansb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,31 +162,31 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="26" name="Good" xfId="1"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -222,10 +203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -260,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -295,7 +276,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -389,21 +370,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -420,7 +401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -472,15 +453,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -488,9 +469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="17.77734375" collapsed="true"/>
-    <col min="12" max="15" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="1" max="10" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.77734375" style="4" customWidth="1" collapsed="1"/>
+    <col min="12" max="15" width="17.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -536,111 +517,62 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="4">
         <v>8056772048</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4">
-        <v>9092246701</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
+      <c r="H3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2" xr:uid="{2E0BA596-2E21-4E7E-BF20-4B3FE1835C26}"/>
-    <hyperlink r:id="rId2" ref="M2" xr:uid="{D7E00B9B-8CF7-4F7F-9798-C87CBFBE5233}"/>
-    <hyperlink r:id="rId3" ref="L3" xr:uid="{7C5246B5-03C3-470C-ABE1-A1580907447A}"/>
-    <hyperlink r:id="rId4" ref="M3" xr:uid="{7A67BD31-2E0E-4769-A005-7B23CA67A04D}"/>
+    <hyperlink ref="L2" r:id="rId1" display="dhananjayansb@gmail.com" xr:uid="{2E0BA596-2E21-4E7E-BF20-4B3FE1835C26}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{D7E00B9B-8CF7-4F7F-9798-C87CBFBE5233}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>